--- a/data/trans_orig/P04DS1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04DS1-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBEA4DA4-5074-477B-831F-1CC7731FF312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BC0FFFE-3295-4BE4-9942-256E466BC2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CCFFC3C5-135D-4A90-9414-D3DA1B44889E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FA297EEC-5B6C-46B1-9C58-431CA22C90DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="846">
   <si>
     <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2012 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -91,2485 +91,2491 @@
     <t>8,17%</t>
   </si>
   <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2023 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>5,48%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 1 en 2023 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
   </si>
 </sst>
 </file>
@@ -2981,7 +2987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D482BBDB-28DE-41B5-8952-7C7638F5F165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DADF779-865F-4045-8042-26DBE7AF0420}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3607,10 +3613,10 @@
         <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3619,13 +3625,13 @@
         <v>6030</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3646,13 @@
         <v>244482</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H15" s="7">
         <v>249</v>
@@ -3655,13 +3661,13 @@
         <v>269176</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M15" s="7">
         <v>489</v>
@@ -3670,13 +3676,13 @@
         <v>513658</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3697,13 @@
         <v>71913</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3706,13 +3712,13 @@
         <v>63727</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>132</v>
@@ -3721,13 +3727,13 @@
         <v>135640</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3748,13 @@
         <v>4804</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3757,13 +3763,13 @@
         <v>4934</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3772,13 +3778,13 @@
         <v>9738</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,7 +3840,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3846,13 +3852,13 @@
         <v>52743</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -3861,13 +3867,13 @@
         <v>65228</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -3876,13 +3882,13 @@
         <v>117971</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3903,13 @@
         <v>394549</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>366</v>
@@ -3912,13 +3918,13 @@
         <v>399440</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>735</v>
@@ -3927,13 +3933,13 @@
         <v>793989</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3954,13 @@
         <v>189686</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>184</v>
@@ -3963,13 +3969,13 @@
         <v>193652</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>362</v>
@@ -3978,13 +3984,13 @@
         <v>383338</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4005,13 @@
         <v>28978</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -4014,13 +4020,13 @@
         <v>16751</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -4029,13 +4035,13 @@
         <v>45729</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,7 +4097,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4103,13 +4109,13 @@
         <v>9520</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -4271,13 +4277,13 @@
         <v>26962</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M27" s="7">
         <v>48</v>
@@ -4286,13 +4292,13 @@
         <v>51565</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,7 +4354,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4360,13 +4366,13 @@
         <v>1919</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4375,13 +4381,13 @@
         <v>2059</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -4390,13 +4396,13 @@
         <v>3978</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4417,13 @@
         <v>188061</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H30" s="7">
         <v>196</v>
@@ -4426,13 +4432,13 @@
         <v>200183</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>377</v>
@@ -4441,13 +4447,13 @@
         <v>388244</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4468,13 @@
         <v>70737</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H31" s="7">
         <v>62</v>
@@ -4477,13 +4483,13 @@
         <v>68009</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>128</v>
@@ -4492,13 +4498,13 @@
         <v>138746</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4519,13 @@
         <v>13264</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4528,13 +4534,13 @@
         <v>8807</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M32" s="7">
         <v>20</v>
@@ -4543,13 +4549,13 @@
         <v>22071</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4611,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4617,10 +4623,10 @@
         <v>11683</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>197</v>
@@ -4632,10 +4638,10 @@
         <v>17354</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>59</v>
+        <v>198</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>199</v>
@@ -4650,10 +4656,10 @@
         <v>200</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4674,13 @@
         <v>483165</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H35" s="7">
         <v>460</v>
@@ -4683,13 +4689,13 @@
         <v>503829</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M35" s="7">
         <v>914</v>
@@ -4752,10 +4758,10 @@
         <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4776,13 @@
         <v>4867</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -4785,13 +4791,13 @@
         <v>2958</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -4800,13 +4806,13 @@
         <v>7825</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>58</v>
+        <v>226</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,7 +4868,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4874,13 +4880,13 @@
         <v>22268</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H39" s="7">
         <v>14</v>
@@ -4889,13 +4895,13 @@
         <v>14579</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M39" s="7">
         <v>35</v>
@@ -4904,13 +4910,13 @@
         <v>36846</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4931,13 @@
         <v>371979</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H40" s="7">
         <v>402</v>
@@ -4940,13 +4946,13 @@
         <v>443478</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M40" s="7">
         <v>738</v>
@@ -4955,13 +4961,13 @@
         <v>815457</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4982,13 @@
         <v>366296</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H41" s="7">
         <v>321</v>
@@ -4991,13 +4997,13 @@
         <v>345019</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M41" s="7">
         <v>664</v>
@@ -5006,13 +5012,13 @@
         <v>711315</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5033,13 @@
         <v>16153</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H42" s="7">
         <v>20</v>
@@ -5042,13 +5048,13 @@
         <v>20778</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M42" s="7">
         <v>36</v>
@@ -5057,13 +5063,13 @@
         <v>36931</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5137,13 @@
         <v>142116</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H44" s="7">
         <v>146</v>
@@ -5146,13 +5152,13 @@
         <v>159575</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M44" s="7">
         <v>277</v>
@@ -5161,13 +5167,13 @@
         <v>301691</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>188</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5188,13 @@
         <v>2156576</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H45" s="7">
         <v>2118</v>
@@ -5197,13 +5203,13 @@
         <v>2295187</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M45" s="7">
         <v>4138</v>
@@ -5212,13 +5218,13 @@
         <v>4451762</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5239,13 @@
         <v>1013463</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H46" s="7">
         <v>940</v>
@@ -5248,13 +5254,13 @@
         <v>1003764</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M46" s="7">
         <v>1888</v>
@@ -5263,13 +5269,13 @@
         <v>2017227</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5290,13 @@
         <v>107529</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="H47" s="7">
         <v>90</v>
@@ -5299,13 +5305,13 @@
         <v>95576</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M47" s="7">
         <v>194</v>
@@ -5314,13 +5320,13 @@
         <v>203105</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>292</v>
+        <v>129</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,7 +5382,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5400,7 +5406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E335D86-B75E-4199-88D0-B2DD33293329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F49369-BA2C-4199-AAE2-9E91FF882CD8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5417,7 +5423,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5524,13 +5530,13 @@
         <v>145605</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -5539,13 +5545,13 @@
         <v>127895</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>248</v>
@@ -5554,13 +5560,13 @@
         <v>273500</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,13 +5581,13 @@
         <v>45072</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>40</v>
@@ -5590,13 +5596,13 @@
         <v>42084</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>82</v>
@@ -5605,13 +5611,13 @@
         <v>87156</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,13 +5632,13 @@
         <v>103084</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>113</v>
@@ -5641,10 +5647,10 @@
         <v>117826</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>319</v>
@@ -5662,7 +5668,7 @@
         <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5683,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5692,13 +5698,13 @@
         <v>898</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5707,13 +5713,13 @@
         <v>898</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,10 +5820,10 @@
         <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>72</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5838,13 @@
         <v>175980</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>160</v>
@@ -5847,13 +5853,13 @@
         <v>169386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M10" s="7">
         <v>329</v>
@@ -5862,13 +5868,13 @@
         <v>345367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5889,13 @@
         <v>187442</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>206</v>
@@ -5898,13 +5904,13 @@
         <v>226562</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>381</v>
@@ -5913,13 +5919,13 @@
         <v>414004</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5940,13 @@
         <v>3124</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -5952,10 +5958,10 @@
         <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -5970,7 +5976,7 @@
         <v>357</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,7 +6062,7 @@
         <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>362</v>
@@ -6071,10 +6077,10 @@
         <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6095,13 @@
         <v>255833</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H15" s="7">
         <v>267</v>
@@ -6104,13 +6110,13 @@
         <v>272656</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M15" s="7">
         <v>538</v>
@@ -6119,13 +6125,13 @@
         <v>528490</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6146,13 @@
         <v>48317</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -6155,13 +6161,13 @@
         <v>54037</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>104</v>
@@ -6170,13 +6176,13 @@
         <v>102354</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,7 +6197,7 @@
         <v>8203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>189</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>383</v>
@@ -6209,10 +6215,10 @@
         <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -6221,13 +6227,13 @@
         <v>14945</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,7 +6289,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6295,13 +6301,13 @@
         <v>15039</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6310,10 +6316,10 @@
         <v>18766</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>395</v>
@@ -6397,7 +6403,7 @@
         <v>109644</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>408</v>
@@ -6433,7 +6439,7 @@
         <v>414</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6454,13 @@
         <v>17022</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6463,13 +6469,13 @@
         <v>19307</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6478,13 +6484,13 @@
         <v>36329</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6540,7 +6546,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6552,13 +6558,13 @@
         <v>2952</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>356</v>
+        <v>223</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -6567,13 +6573,13 @@
         <v>4667</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -6582,13 +6588,13 @@
         <v>7618</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6609,13 @@
         <v>189047</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>198</v>
@@ -6618,13 +6624,13 @@
         <v>195312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>388</v>
@@ -6633,13 +6639,13 @@
         <v>384359</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6660,13 @@
         <v>19222</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -6669,13 +6675,13 @@
         <v>17758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -6684,13 +6690,13 @@
         <v>36980</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6711,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>325</v>
+        <v>448</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -6720,13 +6726,13 @@
         <v>851</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -6735,13 +6741,13 @@
         <v>851</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,7 +6803,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6809,13 +6815,13 @@
         <v>90467</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H29" s="7">
         <v>89</v>
@@ -6824,13 +6830,13 @@
         <v>94275</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>178</v>
@@ -6839,13 +6845,13 @@
         <v>184742</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +6866,13 @@
         <v>66825</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>62</v>
@@ -6875,13 +6881,13 @@
         <v>65204</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M30" s="7">
         <v>126</v>
@@ -6890,13 +6896,13 @@
         <v>132029</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +6917,13 @@
         <v>67276</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H31" s="7">
         <v>84</v>
@@ -6926,13 +6932,13 @@
         <v>85825</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M31" s="7">
         <v>151</v>
@@ -6941,13 +6947,13 @@
         <v>153101</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6968,13 @@
         <v>38555</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H32" s="7">
         <v>28</v>
@@ -6977,13 +6983,13 @@
         <v>27810</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M32" s="7">
         <v>67</v>
@@ -6992,13 +6998,13 @@
         <v>66366</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,7 +7060,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7066,13 +7072,13 @@
         <v>131899</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>486</v>
+        <v>308</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H34" s="7">
         <v>128</v>
@@ -7081,13 +7087,13 @@
         <v>136952</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M34" s="7">
         <v>244</v>
@@ -7099,10 +7105,10 @@
         <v>40</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,13 +7123,13 @@
         <v>337088</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H35" s="7">
         <v>333</v>
@@ -7132,13 +7138,13 @@
         <v>353070</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M35" s="7">
         <v>636</v>
@@ -7147,13 +7153,13 @@
         <v>690158</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7174,13 @@
         <v>164900</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H36" s="7">
         <v>164</v>
@@ -7183,13 +7189,13 @@
         <v>179713</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>508</v>
+        <v>182</v>
       </c>
       <c r="M36" s="7">
         <v>306</v>
@@ -7198,7 +7204,7 @@
         <v>344613</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>509</v>
@@ -7222,10 +7228,10 @@
         <v>511</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H37" s="7">
         <v>21</v>
@@ -7234,13 +7240,13 @@
         <v>21559</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -7249,13 +7255,13 @@
         <v>44231</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,7 +7317,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7323,13 +7329,13 @@
         <v>5369</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H39" s="7">
         <v>8</v>
@@ -7338,13 +7344,13 @@
         <v>8630</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M39" s="7">
         <v>13</v>
@@ -7353,13 +7359,13 @@
         <v>13998</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>428</v>
+        <v>522</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>523</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>524</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7380,13 @@
         <v>498322</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H40" s="7">
         <v>467</v>
@@ -7389,13 +7395,13 @@
         <v>509297</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M40" s="7">
         <v>948</v>
@@ -7404,13 +7410,13 @@
         <v>1007619</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7431,13 @@
         <v>269462</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="H41" s="7">
         <v>276</v>
@@ -7440,13 +7446,13 @@
         <v>303853</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="M41" s="7">
         <v>535</v>
@@ -7455,13 +7461,13 @@
         <v>573316</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7482,13 @@
         <v>5430</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H42" s="7">
         <v>4</v>
@@ -7491,13 +7497,13 @@
         <v>4387</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>546</v>
       </c>
       <c r="M42" s="7">
         <v>9</v>
@@ -7506,13 +7512,13 @@
         <v>9817</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>88</v>
+        <v>546</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>547</v>
+        <v>226</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>548</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7580,13 +7586,13 @@
         <v>533571</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H44" s="7">
         <v>486</v>
@@ -7595,13 +7601,13 @@
         <v>514794</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="M44" s="7">
         <v>973</v>
@@ -7610,13 +7616,13 @@
         <v>1048365</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7637,13 @@
         <v>1796426</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H45" s="7">
         <v>1754</v>
@@ -7646,13 +7652,13 @@
         <v>1848818</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="M45" s="7">
         <v>3491</v>
@@ -7661,13 +7667,13 @@
         <v>3645244</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7688,13 @@
         <v>969347</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H46" s="7">
         <v>1014</v>
@@ -7697,13 +7703,13 @@
         <v>1092977</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>461</v>
+        <v>566</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M46" s="7">
         <v>1930</v>
@@ -7712,13 +7718,13 @@
         <v>2062324</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>464</v>
+        <v>569</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>571</v>
+        <v>110</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7739,13 @@
         <v>95006</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>573</v>
+        <v>233</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>421</v>
+        <v>572</v>
       </c>
       <c r="H47" s="7">
         <v>84</v>
@@ -7748,13 +7754,13 @@
         <v>87953</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>50</v>
+        <v>385</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>202</v>
+        <v>573</v>
       </c>
       <c r="M47" s="7">
         <v>175</v>
@@ -7763,13 +7769,13 @@
         <v>182959</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>416</v>
+        <v>187</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>202</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,7 +7831,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -7849,7 +7855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E78980-613A-44E3-919E-DFF4F2F75A49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DA0207-F6FB-4A07-9DD6-D09CF6E6A9F7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7866,7 +7872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7973,13 +7979,13 @@
         <v>47047</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="H4" s="7">
         <v>113</v>
@@ -7988,13 +7994,13 @@
         <v>48147</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>580</v>
+        <v>493</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="M4" s="7">
         <v>189</v>
@@ -8003,13 +8009,13 @@
         <v>95193</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,13 +8030,13 @@
         <v>109009</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H5" s="7">
         <v>249</v>
@@ -8039,13 +8045,13 @@
         <v>129723</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M5" s="7">
         <v>381</v>
@@ -8054,13 +8060,13 @@
         <v>238732</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,13 +8081,13 @@
         <v>97119</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H6" s="7">
         <v>168</v>
@@ -8090,13 +8096,13 @@
         <v>88630</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M6" s="7">
         <v>286</v>
@@ -8105,13 +8111,13 @@
         <v>185749</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8132,13 @@
         <v>7123</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -8141,13 +8147,13 @@
         <v>4903</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -8156,13 +8162,13 @@
         <v>12026</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>605</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>518</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8230,13 +8236,13 @@
         <v>57108</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>419</v>
+        <v>606</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H9" s="7">
         <v>80</v>
@@ -8245,13 +8251,13 @@
         <v>60954</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="M9" s="7">
         <v>125</v>
@@ -8260,13 +8266,13 @@
         <v>118062</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,13 +8287,13 @@
         <v>435116</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="H10" s="7">
         <v>610</v>
@@ -8296,13 +8302,13 @@
         <v>471136</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="M10" s="7">
         <v>928</v>
@@ -8311,13 +8317,13 @@
         <v>906253</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,10 +8341,10 @@
         <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -8347,13 +8353,13 @@
         <v>16959</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>623</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>624</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -8362,13 +8368,13 @@
         <v>32272</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,13 +8389,13 @@
         <v>11760</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>605</v>
+        <v>450</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -8398,10 +8404,10 @@
         <v>5516</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>630</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>200</v>
@@ -8413,13 +8419,13 @@
         <v>17277</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>234</v>
+        <v>631</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8487,13 +8493,13 @@
         <v>11573</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -8502,13 +8508,13 @@
         <v>8267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M14" s="7">
         <v>29</v>
@@ -8517,13 +8523,13 @@
         <v>19840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8538,13 +8544,13 @@
         <v>232217</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H15" s="7">
         <v>395</v>
@@ -8553,13 +8559,13 @@
         <v>272417</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M15" s="7">
         <v>655</v>
@@ -8568,13 +8574,13 @@
         <v>504634</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,13 +8595,13 @@
         <v>48747</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -8604,13 +8610,13 @@
         <v>47578</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -8619,13 +8625,13 @@
         <v>96324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8640,13 +8646,13 @@
         <v>28654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -8655,13 +8661,13 @@
         <v>43719</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M17" s="7">
         <v>89</v>
@@ -8670,13 +8676,13 @@
         <v>72373</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8732,7 +8738,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8744,13 +8750,13 @@
         <v>11665</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -8759,13 +8765,13 @@
         <v>35383</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -8774,13 +8780,13 @@
         <v>47048</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8795,13 +8801,13 @@
         <v>125311</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H20" s="7">
         <v>298</v>
@@ -8810,13 +8816,13 @@
         <v>201894</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M20" s="7">
         <v>421</v>
@@ -8825,13 +8831,13 @@
         <v>327205</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8846,13 +8852,13 @@
         <v>149878</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H21" s="7">
         <v>206</v>
@@ -8861,13 +8867,13 @@
         <v>149778</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>283</v>
+        <v>689</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="M21" s="7">
         <v>326</v>
@@ -8876,13 +8882,13 @@
         <v>299656</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8897,13 +8903,13 @@
         <v>35386</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -8912,13 +8918,13 @@
         <v>38763</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -8927,13 +8933,13 @@
         <v>74149</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8989,7 +8995,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9001,10 +9007,10 @@
         <v>1069</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>385</v>
@@ -9016,13 +9022,13 @@
         <v>903</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -9031,13 +9037,13 @@
         <v>1972</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>191</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9052,13 +9058,13 @@
         <v>194926</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="H25" s="7">
         <v>480</v>
@@ -9067,13 +9073,13 @@
         <v>251850</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="M25" s="7">
         <v>755</v>
@@ -9082,13 +9088,13 @@
         <v>446775</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,13 +9109,13 @@
         <v>753</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -9118,13 +9124,13 @@
         <v>5781</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>575</v>
+        <v>717</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>718</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>714</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>12</v>
@@ -9133,13 +9139,13 @@
         <v>6534</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9154,13 +9160,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -9169,13 +9175,13 @@
         <v>452</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -9184,13 +9190,13 @@
         <v>452</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>85</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9246,7 +9252,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9258,13 +9264,13 @@
         <v>5326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>721</v>
+        <v>61</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -9273,13 +9279,13 @@
         <v>5761</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>718</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -9288,13 +9294,13 @@
         <v>11088</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>723</v>
+        <v>514</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,13 +9315,13 @@
         <v>151729</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="H30" s="7">
         <v>271</v>
@@ -9324,13 +9330,13 @@
         <v>147299</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="M30" s="7">
         <v>489</v>
@@ -9339,13 +9345,13 @@
         <v>299028</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,13 +9366,13 @@
         <v>42801</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="H31" s="7">
         <v>56</v>
@@ -9375,13 +9381,13 @@
         <v>37490</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="M31" s="7">
         <v>110</v>
@@ -9390,13 +9396,13 @@
         <v>80290</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,13 +9417,13 @@
         <v>77367</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>491</v>
+        <v>747</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="H32" s="7">
         <v>123</v>
@@ -9426,13 +9432,13 @@
         <v>85072</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>745</v>
+        <v>472</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="M32" s="7">
         <v>216</v>
@@ -9441,13 +9447,13 @@
         <v>162439</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,7 +9509,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9515,13 +9521,13 @@
         <v>202148</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="H34" s="7">
         <v>334</v>
@@ -9530,13 +9536,13 @@
         <v>230401</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="M34" s="7">
         <v>533</v>
@@ -9545,13 +9551,13 @@
         <v>432548</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9566,13 +9572,13 @@
         <v>197901</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="H35" s="7">
         <v>291</v>
@@ -9581,13 +9587,13 @@
         <v>317899</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>569</v>
+        <v>767</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="M35" s="7">
         <v>470</v>
@@ -9596,13 +9602,13 @@
         <v>515800</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9617,13 +9623,13 @@
         <v>185939</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>768</v>
+        <v>286</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H36" s="7">
         <v>271</v>
@@ -9632,13 +9638,13 @@
         <v>210091</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="M36" s="7">
         <v>444</v>
@@ -9647,13 +9653,13 @@
         <v>396030</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9668,13 +9674,13 @@
         <v>38585</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H37" s="7">
         <v>58</v>
@@ -9683,13 +9689,13 @@
         <v>41549</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>781</v>
+        <v>573</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>782</v>
+        <v>483</v>
       </c>
       <c r="M37" s="7">
         <v>101</v>
@@ -9698,13 +9704,13 @@
         <v>80134</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>782</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9760,7 +9766,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9772,10 +9778,10 @@
         <v>19797</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>785</v>
+        <v>256</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>786</v>
@@ -9787,13 +9793,13 @@
         <v>22203</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>261</v>
+        <v>787</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M39" s="7">
         <v>44</v>
@@ -9802,13 +9808,13 @@
         <v>42000</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>44</v>
+        <v>790</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9823,13 +9829,13 @@
         <v>733477</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H40" s="7">
         <v>955</v>
@@ -9838,13 +9844,13 @@
         <v>786703</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="M40" s="7">
         <v>1652</v>
@@ -9853,13 +9859,13 @@
         <v>1520181</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9874,13 +9880,13 @@
         <v>97118</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="H41" s="7">
         <v>64</v>
@@ -9889,13 +9895,13 @@
         <v>48741</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M41" s="7">
         <v>105</v>
@@ -9904,13 +9910,13 @@
         <v>145859</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9925,13 +9931,13 @@
         <v>6592</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H42" s="7">
         <v>15</v>
@@ -9940,13 +9946,13 @@
         <v>10786</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>808</v>
+        <v>389</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>809</v>
+        <v>126</v>
       </c>
       <c r="M42" s="7">
         <v>21</v>
@@ -10044,13 +10050,13 @@
         <v>412018</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>93</v>
+        <v>816</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M44" s="7">
         <v>981</v>
@@ -10059,10 +10065,10 @@
         <v>767752</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>152</v>
@@ -10080,13 +10086,13 @@
         <v>2179685</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H45" s="7">
         <v>3549</v>
@@ -10095,13 +10101,13 @@
         <v>2578922</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M45" s="7">
         <v>5751</v>
@@ -10110,13 +10116,13 @@
         <v>4758607</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10131,13 +10137,13 @@
         <v>637667</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H46" s="7">
         <v>862</v>
@@ -10146,13 +10152,13 @@
         <v>605048</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="M46" s="7">
         <v>1435</v>
@@ -10161,13 +10167,13 @@
         <v>1242714</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,13 +10188,13 @@
         <v>205467</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H47" s="7">
         <v>332</v>
@@ -10197,13 +10203,13 @@
         <v>230760</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="M47" s="7">
         <v>556</v>
@@ -10212,13 +10218,13 @@
         <v>436227</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>439</v>
+        <v>845</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>422</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10274,7 +10280,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
